--- a/Jogos_do_Dia_FlashScore/2024-03-17_Jogos_do_Dia_FlashScore.xlsx
+++ b/Jogos_do_Dia_FlashScore/2024-03-17_Jogos_do_Dia_FlashScore.xlsx
@@ -2532,19 +2532,19 @@
         <v>668</v>
       </c>
       <c r="H2">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I2">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J2">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="K2">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="M2">
         <v>1.8</v>
@@ -2667,22 +2667,22 @@
         <v>3.6</v>
       </c>
       <c r="I5">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J5">
+        <v>2.05</v>
+      </c>
+      <c r="K5">
+        <v>1.75</v>
+      </c>
+      <c r="L5">
+        <v>2.05</v>
+      </c>
+      <c r="M5">
+        <v>1.67</v>
+      </c>
+      <c r="N5">
         <v>2.1</v>
-      </c>
-      <c r="K5">
-        <v>1.9</v>
-      </c>
-      <c r="L5">
-        <v>1.95</v>
-      </c>
-      <c r="M5">
-        <v>1.75</v>
-      </c>
-      <c r="N5">
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2761,10 +2761,10 @@
         <v>2.38</v>
       </c>
       <c r="K7">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L7">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="M7">
         <v>1.83</v>
@@ -2884,13 +2884,13 @@
         <v>669</v>
       </c>
       <c r="H10">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="I10">
         <v>3.1</v>
       </c>
       <c r="J10">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="K10">
         <v>2.1</v>
@@ -2931,10 +2931,10 @@
         <v>3.6</v>
       </c>
       <c r="I11">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J11">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="K11">
         <v>2.35</v>
@@ -2943,10 +2943,10 @@
         <v>1.57</v>
       </c>
       <c r="M11">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="N11">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2972,10 +2972,10 @@
         <v>670</v>
       </c>
       <c r="H12">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I12">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J12">
         <v>1.7</v>
@@ -3063,22 +3063,22 @@
         <v>1.85</v>
       </c>
       <c r="I14">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J14">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K14">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="L14">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="M14">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="N14">
-        <v>2</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -3245,16 +3245,16 @@
         <v>3.55</v>
       </c>
       <c r="K18">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="L18">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="M18">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="N18">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -3368,19 +3368,19 @@
         <v>676</v>
       </c>
       <c r="H21">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="I21">
         <v>3.2</v>
       </c>
       <c r="J21">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K21">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="L21">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="M21">
         <v>1.73</v>
@@ -3418,7 +3418,7 @@
         <v>3.15</v>
       </c>
       <c r="J22">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K22">
         <v>1.98</v>
@@ -3456,7 +3456,7 @@
         <v>675</v>
       </c>
       <c r="H23">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I23">
         <v>3.1</v>
@@ -3465,10 +3465,10 @@
         <v>2.38</v>
       </c>
       <c r="K23">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="L23">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="M23">
         <v>2.1</v>
@@ -3500,22 +3500,22 @@
         <v>675</v>
       </c>
       <c r="H24">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="I24">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J24">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="K24">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="L24">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M24">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="N24">
         <v>1.6</v>
@@ -3544,25 +3544,25 @@
         <v>675</v>
       </c>
       <c r="H25">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="I25">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J25">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="K25">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L25">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="M25">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N25">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -3638,7 +3638,7 @@
         <v>4.2</v>
       </c>
       <c r="J27">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="K27">
         <v>1.4</v>
@@ -3676,19 +3676,19 @@
         <v>676</v>
       </c>
       <c r="H28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I28">
         <v>6.5</v>
       </c>
       <c r="J28">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="K28">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="L28">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="M28">
         <v>1.95</v>
@@ -3720,13 +3720,13 @@
         <v>678</v>
       </c>
       <c r="H29">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="I29">
         <v>4</v>
       </c>
       <c r="J29">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="K29">
         <v>2.15</v>
@@ -3764,13 +3764,13 @@
         <v>674</v>
       </c>
       <c r="H30">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="I30">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J30">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="K30">
         <v>1.83</v>
@@ -3808,19 +3808,19 @@
         <v>674</v>
       </c>
       <c r="H31">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I31">
         <v>3.25</v>
       </c>
       <c r="J31">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K31">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="L31">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="M31">
         <v>1.7</v>
@@ -3905,10 +3905,10 @@
         <v>1.33</v>
       </c>
       <c r="K33">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="L33">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="M33">
         <v>1.8</v>
@@ -3943,10 +3943,10 @@
         <v>2.32</v>
       </c>
       <c r="I34">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J34">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="K34">
         <v>1.93</v>
@@ -3984,13 +3984,13 @@
         <v>674</v>
       </c>
       <c r="H35">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="I35">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J35">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="K35">
         <v>1.65</v>
@@ -3999,10 +3999,10 @@
         <v>1.98</v>
       </c>
       <c r="M35">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="N35">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -4037,10 +4037,10 @@
         <v>3</v>
       </c>
       <c r="K36">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="L36">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="M36">
         <v>1.95</v>
@@ -4116,13 +4116,13 @@
         <v>676</v>
       </c>
       <c r="H38">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="I38">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="J38">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="K38">
         <v>1.85</v>
@@ -4131,10 +4131,10 @@
         <v>1.9</v>
       </c>
       <c r="M38">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="N38">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -4160,13 +4160,13 @@
         <v>676</v>
       </c>
       <c r="H39">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="I39">
+        <v>3.8</v>
+      </c>
+      <c r="J39">
         <v>3.75</v>
-      </c>
-      <c r="J39">
-        <v>4</v>
       </c>
       <c r="K39">
         <v>1.57</v>
@@ -4248,19 +4248,19 @@
         <v>676</v>
       </c>
       <c r="H41">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="I41">
         <v>3.5</v>
       </c>
       <c r="J41">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K41">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="L41">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="M41">
         <v>1.53</v>
@@ -4301,10 +4301,10 @@
         <v>1.55</v>
       </c>
       <c r="K42">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="L42">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="M42">
         <v>1.8</v>
@@ -4336,7 +4336,7 @@
         <v>670</v>
       </c>
       <c r="H43">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="I43">
         <v>3.65</v>
@@ -4389,16 +4389,16 @@
         <v>2.45</v>
       </c>
       <c r="K44">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="L44">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="M44">
-        <v>2.23</v>
+        <v>2.19</v>
       </c>
       <c r="N44">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -4512,19 +4512,19 @@
         <v>672</v>
       </c>
       <c r="H47">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="I47">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J47">
         <v>1.5</v>
       </c>
       <c r="K47">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="L47">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="M47">
         <v>2.2</v>
@@ -4600,13 +4600,13 @@
         <v>673</v>
       </c>
       <c r="H49">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="I49">
         <v>3.4</v>
       </c>
       <c r="J49">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K49">
         <v>2.1</v>
@@ -4644,13 +4644,13 @@
         <v>681</v>
       </c>
       <c r="H50">
-        <v>4.65</v>
+        <v>4.3</v>
       </c>
       <c r="I50">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="J50">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="K50">
         <v>2.25</v>
@@ -4659,7 +4659,7 @@
         <v>1.6</v>
       </c>
       <c r="M50">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="N50">
         <v>1.7</v>
@@ -4688,10 +4688,10 @@
         <v>682</v>
       </c>
       <c r="H51">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I51">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="J51">
         <v>2.25</v>
@@ -4791,10 +4791,10 @@
         <v>1.6</v>
       </c>
       <c r="M53">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="N53">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -4961,16 +4961,16 @@
         <v>3.7</v>
       </c>
       <c r="K57">
-        <v>2.55</v>
+        <v>2.54</v>
       </c>
       <c r="L57">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="M57">
-        <v>2.25</v>
+        <v>2.19</v>
       </c>
       <c r="N57">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -5011,10 +5011,10 @@
         <v>1.47</v>
       </c>
       <c r="M58">
-        <v>2.32</v>
+        <v>2.21</v>
       </c>
       <c r="N58">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -5049,16 +5049,16 @@
         <v>3.05</v>
       </c>
       <c r="K59">
-        <v>2.55</v>
+        <v>2.54</v>
       </c>
       <c r="L59">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="M59">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="N59">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -5087,7 +5087,7 @@
         <v>3.1</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="J60">
         <v>2.22</v>
@@ -5099,10 +5099,10 @@
         <v>1.47</v>
       </c>
       <c r="M60">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="N60">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -5128,19 +5128,19 @@
         <v>674</v>
       </c>
       <c r="H61">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I61">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J61">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K61">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L61">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M61">
         <v>2.1</v>
@@ -5216,19 +5216,19 @@
         <v>676</v>
       </c>
       <c r="H63">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I63">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J63">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="K63">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="L63">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="M63">
         <v>1.5</v>
@@ -5260,19 +5260,19 @@
         <v>676</v>
       </c>
       <c r="H64">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="I64">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="J64">
         <v>2.52</v>
       </c>
       <c r="K64">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="L64">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="M64">
         <v>1.65</v>
@@ -5313,10 +5313,10 @@
         <v>4.2</v>
       </c>
       <c r="K65">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L65">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="M65">
         <v>1.67</v>
@@ -5574,7 +5574,7 @@
         <v>4.6</v>
       </c>
       <c r="J71">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="K71">
         <v>1.7</v>
@@ -5788,19 +5788,19 @@
         <v>674</v>
       </c>
       <c r="H76">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I76">
         <v>3.8</v>
       </c>
       <c r="J76">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="K76">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="L76">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="M76">
         <v>1.7</v>
@@ -5964,13 +5964,13 @@
         <v>676</v>
       </c>
       <c r="H80">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="I80">
         <v>5</v>
       </c>
       <c r="J80">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="K80">
         <v>1.53</v>
@@ -5979,10 +5979,10 @@
         <v>2.4</v>
       </c>
       <c r="M80">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="N80">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -6017,10 +6017,10 @@
         <v>2.15</v>
       </c>
       <c r="K81">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="L81">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="M81">
         <v>1.57</v>
@@ -6105,10 +6105,10 @@
         <v>15</v>
       </c>
       <c r="K83">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="L83">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="M83">
         <v>2.25</v>
@@ -6319,10 +6319,10 @@
         <v>3.8</v>
       </c>
       <c r="I88">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J88">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="K88">
         <v>2.18</v>
@@ -6331,10 +6331,10 @@
         <v>1.72</v>
       </c>
       <c r="M88">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="N88">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -6501,10 +6501,10 @@
         <v>3</v>
       </c>
       <c r="K92">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L92">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="M92">
         <v>1.83</v>
@@ -6536,25 +6536,25 @@
         <v>676</v>
       </c>
       <c r="H93">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="I93">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="J93">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K93">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="L93">
-        <v>2.35</v>
+        <v>2.7</v>
       </c>
       <c r="M93">
-        <v>2.82</v>
+        <v>2.57</v>
       </c>
       <c r="N93">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -6589,16 +6589,16 @@
         <v>3.45</v>
       </c>
       <c r="K94">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="L94">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="M94">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="N94">
-        <v>2.02</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -6633,16 +6633,16 @@
         <v>2.95</v>
       </c>
       <c r="K95">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="L95">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="M95">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N95">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -6668,7 +6668,7 @@
         <v>683</v>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I96">
         <v>3</v>
@@ -6712,13 +6712,13 @@
         <v>673</v>
       </c>
       <c r="H97">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="I97">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J97">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="K97">
         <v>2.35</v>
@@ -6765,10 +6765,10 @@
         <v>3.6</v>
       </c>
       <c r="K98">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="L98">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="M98">
         <v>1.75</v>
@@ -6800,25 +6800,25 @@
         <v>678</v>
       </c>
       <c r="H99">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="I99">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J99">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K99">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="L99">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="M99">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="N99">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -6853,10 +6853,10 @@
         <v>2.6</v>
       </c>
       <c r="K100">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="L100">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="M100">
         <v>1.62</v>
@@ -6897,10 +6897,10 @@
         <v>1.83</v>
       </c>
       <c r="K101">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="L101">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="M101">
         <v>1.91</v>
@@ -6985,10 +6985,10 @@
         <v>3.1</v>
       </c>
       <c r="K103">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L103">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="M103">
         <v>1.91</v>
@@ -7029,10 +7029,10 @@
         <v>2.1</v>
       </c>
       <c r="K104">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="L104">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="M104">
         <v>1.57</v>
@@ -7117,10 +7117,10 @@
         <v>2.05</v>
       </c>
       <c r="K106">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="L106">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="M106">
         <v>1.57</v>
@@ -7152,25 +7152,25 @@
         <v>674</v>
       </c>
       <c r="H107">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="I107">
         <v>4</v>
       </c>
       <c r="J107">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="K107">
         <v>2.05</v>
       </c>
       <c r="L107">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="M107">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N107">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -7196,7 +7196,7 @@
         <v>691</v>
       </c>
       <c r="H108">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="I108">
         <v>4.5</v>
@@ -7372,13 +7372,13 @@
         <v>689</v>
       </c>
       <c r="H112">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="I112">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J112">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K112">
         <v>2.5</v>
@@ -7425,10 +7425,10 @@
         <v>1.53</v>
       </c>
       <c r="K113">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="L113">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="M113">
         <v>1.8</v>
@@ -7469,10 +7469,10 @@
         <v>8.5</v>
       </c>
       <c r="K114">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="L114">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="M114">
         <v>2.2</v>
@@ -7592,25 +7592,25 @@
         <v>672</v>
       </c>
       <c r="H117">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I117">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J117">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K117">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="L117">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="M117">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N117">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -7680,25 +7680,25 @@
         <v>674</v>
       </c>
       <c r="H119">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="I119">
         <v>3.6</v>
       </c>
       <c r="J119">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K119">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="L119">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="M119">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="N119">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -7815,22 +7815,22 @@
         <v>1.85</v>
       </c>
       <c r="I122">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J122">
         <v>3.9</v>
       </c>
       <c r="K122">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="L122">
         <v>1.9</v>
       </c>
       <c r="M122">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="N122">
-        <v>1.98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -7865,10 +7865,10 @@
         <v>3.2</v>
       </c>
       <c r="K123">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="L123">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="M123">
         <v>1.73</v>
@@ -7915,7 +7915,7 @@
         <v>1.8</v>
       </c>
       <c r="M124">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="N124">
         <v>1.82</v>
@@ -8041,10 +8041,10 @@
         <v>4.2</v>
       </c>
       <c r="K127">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="L127">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="M127">
         <v>1.7</v>
@@ -8076,25 +8076,25 @@
         <v>678</v>
       </c>
       <c r="H128">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="I128">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J128">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="K128">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="L128">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M128">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="N128">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -8179,10 +8179,10 @@
         <v>1.6</v>
       </c>
       <c r="M130">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N130">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -8208,13 +8208,13 @@
         <v>683</v>
       </c>
       <c r="H131">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="I131">
         <v>2.9</v>
       </c>
       <c r="J131">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K131">
         <v>2.7</v>
@@ -8296,13 +8296,13 @@
         <v>681</v>
       </c>
       <c r="H133">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I133">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="J133">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="K133">
         <v>2.62</v>
@@ -8340,25 +8340,25 @@
         <v>692</v>
       </c>
       <c r="H134">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="I134">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J134">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="K134">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="L134">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="M134">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="N134">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -8384,13 +8384,13 @@
         <v>692</v>
       </c>
       <c r="H135">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="I135">
         <v>3.3</v>
       </c>
       <c r="J135">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="K135">
         <v>2.5</v>
@@ -8399,10 +8399,10 @@
         <v>1.47</v>
       </c>
       <c r="M135">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="N135">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -8437,7 +8437,7 @@
         <v>2.82</v>
       </c>
       <c r="K136">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="L136">
         <v>1.53</v>
@@ -8613,10 +8613,10 @@
         <v>1.95</v>
       </c>
       <c r="K140">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="L140">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="M140">
         <v>1.62</v>
@@ -8648,13 +8648,13 @@
         <v>672</v>
       </c>
       <c r="H141">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="I141">
         <v>6.5</v>
       </c>
       <c r="J141">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K141">
         <v>1.48</v>
@@ -8663,10 +8663,10 @@
         <v>2.6</v>
       </c>
       <c r="M141">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N141">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -8692,13 +8692,13 @@
         <v>673</v>
       </c>
       <c r="H142">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="I142">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J142">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="K142">
         <v>1.67</v>
@@ -8736,25 +8736,25 @@
         <v>673</v>
       </c>
       <c r="H143">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="I143">
         <v>4</v>
       </c>
       <c r="J143">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="K143">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="L143">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="M143">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="N143">
-        <v>2</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="144" spans="1:14">
@@ -8783,22 +8783,22 @@
         <v>1.33</v>
       </c>
       <c r="I144">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J144">
         <v>8</v>
       </c>
       <c r="K144">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="L144">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="M144">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="N144">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="145" spans="1:14">
@@ -8833,10 +8833,10 @@
         <v>1.33</v>
       </c>
       <c r="K145">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="L145">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="M145">
         <v>2.2</v>
@@ -8877,10 +8877,10 @@
         <v>7</v>
       </c>
       <c r="K146">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="L146">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="M146">
         <v>1.83</v>
@@ -8921,10 +8921,10 @@
         <v>3.1</v>
       </c>
       <c r="K147">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="L147">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="M147">
         <v>1.57</v>
@@ -8956,19 +8956,19 @@
         <v>676</v>
       </c>
       <c r="H148">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="I148">
         <v>4.5</v>
       </c>
       <c r="J148">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="K148">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="L148">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="M148">
         <v>1.91</v>
@@ -9015,10 +9015,10 @@
         <v>2.25</v>
       </c>
       <c r="M149">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="N149">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="150" spans="1:14">
@@ -9050,7 +9050,7 @@
         <v>3.55</v>
       </c>
       <c r="J150">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K150">
         <v>2.05</v>
@@ -9135,16 +9135,16 @@
         <v>1.91</v>
       </c>
       <c r="I152">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J152">
         <v>4.5</v>
       </c>
       <c r="K152">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L152">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M152">
         <v>2.38</v>
@@ -9264,13 +9264,13 @@
         <v>695</v>
       </c>
       <c r="H155">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="I155">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J155">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="K155">
         <v>2.35</v>
@@ -9279,10 +9279,10 @@
         <v>1.57</v>
       </c>
       <c r="M155">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="N155">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="156" spans="1:14">
@@ -9311,22 +9311,22 @@
         <v>2.07</v>
       </c>
       <c r="I156">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J156">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K156">
-        <v>2.07</v>
+        <v>2.3</v>
       </c>
       <c r="L156">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="M156">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="N156">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="157" spans="1:14">
@@ -9361,10 +9361,10 @@
         <v>1.91</v>
       </c>
       <c r="K157">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L157">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="M157">
         <v>2</v>
@@ -9396,13 +9396,13 @@
         <v>680</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="I158">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J158">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K158">
         <v>2.4</v>
@@ -9440,7 +9440,7 @@
         <v>682</v>
       </c>
       <c r="H159">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="I159">
         <v>3.5</v>
@@ -9625,10 +9625,10 @@
         <v>6</v>
       </c>
       <c r="K163">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="L163">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="M163">
         <v>1.8</v>
@@ -9880,13 +9880,13 @@
         <v>680</v>
       </c>
       <c r="H169">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="I169">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J169">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K169">
         <v>1.85</v>
@@ -9930,7 +9930,7 @@
         <v>3.8</v>
       </c>
       <c r="J170">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="K170">
         <v>2.25</v>
@@ -10012,19 +10012,19 @@
         <v>680</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="I172">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J172">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K172">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L172">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="M172">
         <v>2</v>
@@ -10056,19 +10056,19 @@
         <v>680</v>
       </c>
       <c r="H173">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="I173">
         <v>3.8</v>
       </c>
       <c r="J173">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="K173">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L173">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="M173">
         <v>1.8</v>
@@ -10144,19 +10144,19 @@
         <v>694</v>
       </c>
       <c r="H175">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="I175">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J175">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K175">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="L175">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="M175">
         <v>1.57</v>
@@ -10188,19 +10188,19 @@
         <v>693</v>
       </c>
       <c r="H176">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="I176">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J176">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="K176">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="L176">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="M176">
         <v>1.73</v>
@@ -10285,10 +10285,10 @@
         <v>3.6</v>
       </c>
       <c r="K178">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="L178">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="M178">
         <v>1.73</v>
@@ -10320,13 +10320,13 @@
         <v>695</v>
       </c>
       <c r="H179">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I179">
         <v>3.1</v>
       </c>
       <c r="J179">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="K179">
         <v>2.5</v>
@@ -10496,7 +10496,7 @@
         <v>668</v>
       </c>
       <c r="H183">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="I183">
         <v>3.8</v>
